--- a/BACKLOGSfpa.xlsx
+++ b/BACKLOGSfpa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8787765B-DD95-4265-B0C9-18216C48CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA55253-E3B1-44FA-B1DF-0BDFAA5BF5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="107">
   <si>
     <t>COMPONENTE FUNCIONAL BÁSICO (CFB)</t>
   </si>
@@ -257,28 +257,7 @@
     <t>PARÂMETROS PARA CÁLCULO DE PONTOS DE FUNÇÃO NÃO AJUSTADOS</t>
   </si>
   <si>
-    <t>Tabela de chamados</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Id protocolo,  Id cliente,  Prioridade, Tipo, Descricao do problema</t>
-  </si>
-  <si>
-    <t>Id protocolo, Status, Id cliente, Prioridade, Tipo, Data registro</t>
-  </si>
-  <si>
-    <t>Registro de prioridade por palavra chave</t>
-  </si>
-  <si>
-    <t>Palavra chave, Prioridade</t>
-  </si>
-  <si>
-    <t>Registro de tipo de chamado por palavra chave</t>
-  </si>
-  <si>
-    <t>Palavra chave, Tipo</t>
   </si>
   <si>
     <t>Frontend de cadastro de empresas</t>
@@ -344,13 +323,55 @@
     <t>Tabela de informações da empresa cadastrado</t>
   </si>
   <si>
-    <t>ID empresa, nome empresa, Data registro, Descrição de empresa</t>
+    <t>Nome empresa, Data registro, Descrição de empresa,  Telefone de Contato, Email de contato, Localização de atuação</t>
   </si>
   <si>
-    <t>ID empresa, Data registro, Descrição de empresa,  Telefone de Contato, Email de contato</t>
+    <t>ID empresa,Nome empresa, Data registro, Descrição de empresa,  Telefone de Contato, Email de contato, Localização de atuação</t>
   </si>
   <si>
-    <t>Nome empresa, Data registro, Descrição de empresa,  Telefone de Contato, Email de contato, Localização de atuação</t>
+    <t>Registro de cadastro de empresa</t>
+  </si>
+  <si>
+    <t>Frontend de cadastro de pontos de energia sustentável</t>
+  </si>
+  <si>
+    <t>Nome empresa, Localização de atuação, Descrição do serviço</t>
+  </si>
+  <si>
+    <t>Backend de cadastro de pontos de energia sustentável</t>
+  </si>
+  <si>
+    <t>Tabela de cadastro de pontos de energia sustentavel</t>
+  </si>
+  <si>
+    <t>Id Empresa, Nome empresa, Localização de atuação, Descrição do serviço</t>
+  </si>
+  <si>
+    <t>Registro de cadastro de pontos de energia sustentável</t>
+  </si>
+  <si>
+    <t>Nome da empresa, Local de manutenção, tipo de manutenção, Responsável manutenção,Data pedido, data conserto, status conclusão</t>
+  </si>
+  <si>
+    <t>Id Empresa,Nome da empresa, Número chamado, Local de manutenção, tipo de manutenção, Responsável manutenção,Data pedido, data conserto, status conclusão</t>
+  </si>
+  <si>
+    <t>Registro de cadastro de manutenção</t>
+  </si>
+  <si>
+    <t>Tabela de pontos de energia</t>
+  </si>
+  <si>
+    <t>Nome analista, Data nascimento, cargo</t>
+  </si>
+  <si>
+    <t>Tabela com dados analistas</t>
+  </si>
+  <si>
+    <t>Id analista,Nome analista, Data nascimento, cargo</t>
+  </si>
+  <si>
+    <t>Registro do analista</t>
   </si>
 </sst>
 </file>
@@ -787,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,10 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1749,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N424"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1915,7 @@
     </row>
     <row r="13" spans="1:8" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>3</v>
@@ -1906,7 +1923,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="29"/>
       <c r="E13" s="31" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F13" s="29">
         <v>6</v>
@@ -1920,24 +1937,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" s="29">
         <v>1</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F14" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="39" t="str">
         <f t="shared" si="1"/>
@@ -1948,24 +1965,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F15" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="39" t="str">
         <f t="shared" si="1"/>
@@ -1976,22 +1993,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
       <c r="E16" s="31" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F16" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="39" t="str">
         <f t="shared" si="1"/>
@@ -2002,9 +2021,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>4</v>
@@ -2012,14 +2031,12 @@
       <c r="C17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="31" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F17" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="39" t="str">
         <f t="shared" si="1"/>
@@ -2030,22 +2047,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
       <c r="E18" s="31" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F18" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="39" t="str">
         <f t="shared" si="1"/>
@@ -2058,22 +2077,22 @@
     </row>
     <row r="19" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="29">
         <v>1</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F19" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="39" t="str">
         <f t="shared" si="1"/>
@@ -2084,24 +2103,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D20" s="29">
         <v>1</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F20" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="39" t="str">
         <f t="shared" si="1"/>
@@ -2112,17 +2131,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="C21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="32">
+        <v>4</v>
+      </c>
       <c r="G21" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
@@ -2132,17 +2159,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="32">
+        <v>7</v>
+      </c>
       <c r="G22" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
@@ -2152,17 +2183,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="C23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="32">
+        <v>8</v>
+      </c>
       <c r="G23" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
@@ -2172,17 +2211,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="32">
+        <v>8</v>
+      </c>
       <c r="G24" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
@@ -2192,53 +2239,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+    <row r="25" spans="1:8" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="32">
+        <v>4</v>
+      </c>
       <c r="G25" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="39" t="str">
+        <v>Simples</v>
+      </c>
+      <c r="H25" s="39">
         <f t="shared" ref="H25:H75" si="2">IF(AND(B25="AIE",G25="Simples"),7,IF(AND(B25="AIE",G25="Medio"),10,IF(AND(B25="AIE",G25="Complexo"),15,IF(AND(B25="ALI",G25="Simples"),7,IF(AND(B25="ALI",G25="Medio"),10,IF(AND(B25="ALI",G25="Complexo"),15,IF(AND(B25="CE",G25="Simples"),4,IF(AND(B25="CE",G25="Medio"),5,IF(AND(B25="CE",G25="Complexo"),7,IF(AND(B25="EE",G25="Simples"),3,IF(AND(B25="EE",G25="Medio"),4,IF(AND(B25="EE",G25="Complexo"),6,""))))))))))))</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="32">
+        <v>3</v>
+      </c>
       <c r="G26" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
       </c>
       <c r="H26" s="39">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="C27" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="32">
+        <v>3</v>
+      </c>
       <c r="G27" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
@@ -2248,44 +2319,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="32">
         <v>3</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
       <c r="G28" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Simples</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>6</v>
-      </c>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
       <c r="G29" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>Simples</v>
-      </c>
-      <c r="H29" s="39">
+        <v/>
+      </c>
+      <c r="H29" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -5800,7 +5875,7 @@
     </row>
     <row r="247" spans="1:14" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B247" s="38" t="s">
         <v>5</v>
@@ -5822,7 +5897,7 @@
         <v>Simples</v>
       </c>
       <c r="M247" s="42" t="str">
-        <f t="shared" ref="M247:M248" si="10">IF(A247&lt;&gt;"",IF(AND(K247="Simples",L247="Simples"),"Simples",IF(AND(K247="Simples",L247="Medio"),"Medio",IF(AND(K247="Medio",L247="Simples"),"Medio",IF(AND(K247="Medio",L247="Medio"),"Medio","Complexo")))),"")</f>
+        <f t="shared" ref="M247" si="10">IF(A247&lt;&gt;"",IF(AND(K247="Simples",L247="Simples"),"Simples",IF(AND(K247="Simples",L247="Medio"),"Medio",IF(AND(K247="Medio",L247="Simples"),"Medio",IF(AND(K247="Medio",L247="Medio"),"Medio","Complexo")))),"")</f>
         <v>Simples</v>
       </c>
       <c r="N247" s="44">
@@ -5832,7 +5907,7 @@
     </row>
     <row r="248" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B248" s="38" t="s">
         <v>5</v>
@@ -5888,7 +5963,7 @@
         <v/>
       </c>
       <c r="N249" s="44" t="str">
-        <f t="shared" ref="N248:N311" si="15">IF(AND(A249&lt;&gt;"",M249="Simples"),4,IF(AND(A249&lt;&gt;0,M249="Medio"),5,IF(AND(A249&lt;&gt;0,M249="Complexo"),7,"")))</f>
+        <f t="shared" ref="N249:N311" si="15">IF(AND(A249&lt;&gt;"",M249="Simples"),4,IF(AND(A249&lt;&gt;0,M249="Medio"),5,IF(AND(A249&lt;&gt;0,M249="Complexo"),7,"")))</f>
         <v/>
       </c>
     </row>
@@ -11194,82 +11269,82 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
